--- a/vape-liquid-calculator.xlsx
+++ b/vape-liquid-calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\engineering-calculator-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800E9108-B03E-4EEB-9333-6C11427CB3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE45CF9B-ADFA-42E2-BC51-8EC8415CB895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1220" windowWidth="28800" windowHeight="15460" xr2:uid="{B3A0A09E-93E2-4B13-B46F-1276CBF3AB1E}"/>
+    <workbookView xWindow="38290" yWindow="-4440" windowWidth="38620" windowHeight="21220" xr2:uid="{B3A0A09E-93E2-4B13-B46F-1276CBF3AB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Initial Nicotine Value</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>18mG</t>
+  </si>
+  <si>
+    <t>6mL</t>
+  </si>
+  <si>
+    <t>12ml</t>
+  </si>
+  <si>
+    <t>9mg</t>
+  </si>
+  <si>
+    <t>24ml</t>
   </si>
 </sst>
 </file>
@@ -141,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +172,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF534746-C338-48F0-8AB5-C08048225E05}">
-  <dimension ref="B2:T34"/>
+  <dimension ref="B2:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,35 +591,35 @@
         <v>18</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
         <f>C11*D11</f>
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="H11" s="1">
         <f>$E$11 /H6</f>
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ref="I11:M11" si="0">$E$11 /I6</f>
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>2.16</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="0"/>
-        <v>2.5714285714285716</v>
+        <v>1.5428571428571429</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.35">
@@ -870,6 +891,44 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C46" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C48" s="1">
+        <v>3.375</v>
+      </c>
+      <c r="D48" s="1">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vape-liquid-calculator.xlsx
+++ b/vape-liquid-calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\engineering-calculator-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE45CF9B-ADFA-42E2-BC51-8EC8415CB895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CF87C3-8C0B-47BC-8C2A-7D0726BCCB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-4440" windowWidth="38620" windowHeight="21220" xr2:uid="{B3A0A09E-93E2-4B13-B46F-1276CBF3AB1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B3A0A09E-93E2-4B13-B46F-1276CBF3AB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Initial Nicotine Value</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>24ml</t>
+  </si>
+  <si>
+    <t>https://www.cdv-forum.com/Resources/Calc/calc.htm</t>
   </si>
 </sst>
 </file>
@@ -191,6 +194,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>100218</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>150449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D9747D-E770-5D50-D636-AD4D5F6EC6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511800" y="215900"/>
+          <a:ext cx="12851018" cy="8773749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>544899</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>96175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE2C2C2-1D6C-E1AA-29C5-BE9099AF8843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270500" y="9118600"/>
+          <a:ext cx="14146599" cy="6630325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF534746-C338-48F0-8AB5-C08048225E05}">
-  <dimension ref="B2:T48"/>
+  <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -929,7 +1025,13 @@
         <v>36</v>
       </c>
     </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/vape-liquid-calculator.xlsx
+++ b/vape-liquid-calculator.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\engineering-calculator-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CF87C3-8C0B-47BC-8C2A-7D0726BCCB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B622E2F-5F82-4A5A-938D-741BC51386CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B3A0A09E-93E2-4B13-B46F-1276CBF3AB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -201,15 +212,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>100218</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>150449</xdr:rowOff>
+      <xdr:colOff>68468</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -232,7 +243,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511800" y="215900"/>
+          <a:off x="5480050" y="273050"/>
           <a:ext cx="12851018" cy="8773749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -588,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF534746-C338-48F0-8AB5-C08048225E05}">
   <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
